--- a/medicine/Mort/Cimetière_de_Hakapelto/Cimetière_de_Hakapelto.xlsx
+++ b/medicine/Mort/Cimetière_de_Hakapelto/Cimetière_de_Hakapelto.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Hakapelto</t>
+          <t>Cimetière_de_Hakapelto</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de Hakapelto (en finnois : Hakapellon hautausmaa) est situé à Naantali en Finlande.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Hakapelto</t>
+          <t>Cimetière_de_Hakapelto</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de Hakapelto et sa chapelle situés à Soininen sont achevés en 1984. 
 Ils appartiennent à l'association paroissiale de Naantali. 
-Le cimetière a une superficie de près de 15 hectares[1]. 
-Aujourd'hui, la plupart des personnes enterrées à Naantali sont placées à Hakapelto, après que le cimetière de l'église de Naantali soit devenu trop exigü[2]. 
-La chapelle de Hakapelto a été conçue par Reino Lukander[3].
+Le cimetière a une superficie de près de 15 hectares. 
+Aujourd'hui, la plupart des personnes enterrées à Naantali sont placées à Hakapelto, après que le cimetière de l'église de Naantali soit devenu trop exigü. 
+La chapelle de Hakapelto a été conçue par Reino Lukander.
 </t>
         </is>
       </c>
